--- a/Docker.xlsx
+++ b/Docker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\資料\勉強\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\jeus-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="install" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="cgroup error" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
     <sheet name="port forward" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
-    <sheet name="volume設定" sheetId="7" r:id="rId8"/>
-    <sheet name="payara-oracle連結" sheetId="8" r:id="rId9"/>
+    <sheet name="volume設定" sheetId="7" r:id="rId7"/>
+    <sheet name="payara-oracle連結" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -5199,7 +5198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E292"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -5297,7 +5296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -5440,7 +5439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B33:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -5501,24 +5500,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M42" sqref="M40:M42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W126" sqref="W126"/>
     </sheetView>
   </sheetViews>
@@ -5567,11 +5551,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S88"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W71" sqref="W71"/>
     </sheetView>
   </sheetViews>

--- a/Docker.xlsx
+++ b/Docker.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="install" sheetId="1" r:id="rId1"/>
-    <sheet name="Docker-DeskTop" sheetId="6" r:id="rId2"/>
-    <sheet name="host-only error" sheetId="2" r:id="rId3"/>
-    <sheet name="cgroup error" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
-    <sheet name="port forward" sheetId="4" r:id="rId6"/>
-    <sheet name="volume設定" sheetId="7" r:id="rId7"/>
-    <sheet name="payara-oracle連結" sheetId="8" r:id="rId8"/>
+    <sheet name="commands" sheetId="9" r:id="rId2"/>
+    <sheet name="Docker-DeskTop" sheetId="6" r:id="rId3"/>
+    <sheet name="host-only error" sheetId="2" r:id="rId4"/>
+    <sheet name="cgroup error" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="port forward" sheetId="4" r:id="rId7"/>
+    <sheet name="volume設定" sheetId="7" r:id="rId8"/>
+    <sheet name="payara-oracle連結" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>https://docs.docker.com/toolbox/toolbox_install_windows/</t>
   </si>
@@ -435,12 +436,410 @@
   <si>
     <t>再度、「有効」にし直す</t>
   </si>
+  <si>
+    <t>docker search &lt;image名&gt;</t>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例）docker search nginx</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker pull &lt;image名&gt;</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker pull &lt;image名&gt;:&lt;tag名&gt;</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker history &lt;image名&gt;:&lt;tag名&gt;</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imageがどういったコマンドで生成されたかの履歴</t>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Docker image関連コマンド</t>
+    <rPh sb="12" eb="14">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image pull (download)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image履歴確認</t>
+    <rPh sb="5" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Container実行</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例） docker run -d --restart always nginx</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※tag, digestは省略可能</t>
+    <rPh sb="13" eb="15">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ -d (--detach) ：バックグラウンドで起動</t>
+    <rPh sb="26" eb="28">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ --restart always：container再起動と関連したpolicyを意味するOption。</t>
+    <rPh sb="28" eb="31">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中止されたcontainerは即時再起動する、または、LinuxサーバでDockerサービスが起動されるときに同時にContainerも自動で起動されるような設定。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソクジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--restart option</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container異常終了時</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Docker service 開始時</t>
+    <rPh sb="15" eb="17">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>no(default)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>on-failure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>always</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unless-stopped</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container再起動なし</t>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container再起動</t>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container起動</t>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container起動なし</t>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザが停止していないContainerのみ起動</t>
+    <rPh sb="4" eb="6">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Container関連</t>
+    <rPh sb="9" eb="11">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container確認</t>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker ps</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ps (process status)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker ps -f (filter) &lt;filter対象&gt;</t>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例）docker ps -f id=abc</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt; containerのidが「abc」始まりのcontainerを検索</t>
+    <rPh sb="22" eb="23">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[filter key]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・id : container id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ancestor : containerが使用するimage名</t>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・exited : containerが終了されたときの返却される数字のコード</t>
+    <rPh sb="20" eb="22">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・label : container label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・name : container名</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・status : containerのstatus</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■　port指定で実行</t>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker run [option] &lt;image名&gt;[:tag | digest]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■　基本的な実行コマンド</t>
+    <rPh sb="2" eb="5">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※　「-p &lt;requestを受け取るホストのport&gt;:&lt;連結するcontainerのport&gt;」 optionを追加</t>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-p 8080:80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --name nginx-exposed --restart always nginx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※　-p (--publish)</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +908,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,13 +931,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -541,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +991,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5198,7 +5645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -5267,6 +5714,735 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:AY53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="2" style="7"/>
+    <col min="5" max="5" width="2" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="T21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J26" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+    </row>
+    <row r="28" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+    </row>
+    <row r="29" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+    </row>
+    <row r="30" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+    </row>
+    <row r="31" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+    </row>
+    <row r="32" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+    </row>
+    <row r="33" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+    </row>
+    <row r="34" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
+      <c r="AW34" s="12"/>
+      <c r="AX34" s="12"/>
+      <c r="AY34" s="12"/>
+    </row>
+    <row r="35" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+    </row>
+    <row r="36" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
+      <c r="AW36" s="12"/>
+      <c r="AX36" s="12"/>
+      <c r="AY36" s="12"/>
+    </row>
+    <row r="37" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+    </row>
+    <row r="39" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="G45" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:AD31"/>
+    <mergeCell ref="AE31:AY31"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:AD29"/>
+    <mergeCell ref="AE29:AY29"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:AD30"/>
+    <mergeCell ref="AE30:AY30"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:AD27"/>
+    <mergeCell ref="AE27:AY27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:AD28"/>
+    <mergeCell ref="AE28:AY28"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5292,7 +6468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B93"/>
   <sheetViews>
@@ -5419,7 +6595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5435,7 +6611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B33:B38"/>
   <sheetViews>
@@ -5482,11 +6658,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T204" sqref="T204"/>
     </sheetView>
   </sheetViews>
@@ -5498,11 +6674,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W126" sqref="W126"/>
     </sheetView>
   </sheetViews>
@@ -5551,7 +6727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S88"/>
   <sheetViews>

--- a/Docker.xlsx
+++ b/Docker.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
   <si>
     <t>https://docs.docker.com/toolbox/toolbox_install_windows/</t>
   </si>
@@ -832,6 +832,388 @@
   </si>
   <si>
     <t>※　-p (--publish)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container内部確認</t>
+    <rPh sb="9" eb="11">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ex) docker exec e7ca ls /usr/share/nginx/html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt; container IDがe7ca始まりのcontainerの「/usr/share/nginx/html」経路を検索する。</t>
+    <rPh sb="20" eb="21">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>containerの中に接続</t>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker exec &lt;container id | name&gt; &lt;command&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker exec -it &lt;container id | name&gt; bash</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホストのファイルをconainerの中にコピー</t>
+    <rPh sb="18" eb="19">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker cp &lt;hostの経路&gt; &lt;container名&gt;:&lt;container内部の経路&gt;</t>
+    <rPh sb="16" eb="18">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Container内部ファイル変更</t>
+    <rPh sb="9" eb="11">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※一回のみ。必要なときに短編的に転送するときに使用</t>
+    <rPh sb="1" eb="3">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンペン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bind Mountでホストとcontainerを連結する</t>
+    <rPh sb="25" eb="27">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d -p &lt;port&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v &lt;hostの経路&gt;:&lt;containerの経路&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> そのたoption</t>
+    </r>
+    <rPh sb="33" eb="35">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ex) docker run -d -p 8080:80 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v /root/html:/usr/share/nginx/html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --restart always --name nginx-bind-mounts nginx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※containerの「/usr/share/nginx/html」の中に既にファイルが存在する場合、hostの「/root/html」の内容で上書きされなくなるから、要注意。</t>
+    <rPh sb="35" eb="36">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>ヨウチュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Volume作成、照会、連結</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Volume作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker volume create &lt;volume名&gt;</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Volume照会</t>
+    <rPh sb="7" eb="9">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker volume inspect &lt;volume名&gt;</t>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Volume確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker volume ls</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Volumeをcontainerの内部経路と連結</t>
+    <rPh sb="18" eb="20">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※Volume：Dockerが管理し、Containerに提供するホストのスペース。</t>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d -p &lt;port&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v &lt;volume名&gt;:&lt;containerの経路&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> そのたoption</t>
+    </r>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ex) docker run -d -p 8080:80 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v nginx-volume:/usr/share/nginx/html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --restart always --name nginx-bind-mounts nginx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※host directoryとcontainer directoryの両方を同期化するため、基本上書きされずに両方のファイルが存在する。</t>
+    <rPh sb="36" eb="38">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ドウキカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ただし、同じファイル名が両方存在する場合、hostのファイルで上書きするので、要注意</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ヨウチュウイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -998,16 +1380,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5714,10 +6096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AY53"/>
+  <dimension ref="D2:AY90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -5822,535 +6204,535 @@
       </c>
     </row>
     <row r="26" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9" t="s">
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9"/>
-      <c r="AO27" s="9"/>
-      <c r="AP27" s="9"/>
-      <c r="AQ27" s="9"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="9"/>
-      <c r="AT27" s="9"/>
-      <c r="AU27" s="9"/>
-      <c r="AV27" s="9"/>
-      <c r="AW27" s="9"/>
-      <c r="AX27" s="9"/>
-      <c r="AY27" s="9"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
     </row>
     <row r="28" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10" t="s">
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
     </row>
     <row r="29" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10" t="s">
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
     </row>
     <row r="30" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10" t="s">
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="10"/>
-      <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="10"/>
-      <c r="AX30" s="10"/>
-      <c r="AY30" s="10"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
     </row>
     <row r="31" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10" t="s">
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="10"/>
-      <c r="AU31" s="10"/>
-      <c r="AV31" s="10"/>
-      <c r="AW31" s="10"/>
-      <c r="AX31" s="10"/>
-      <c r="AY31" s="10"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
     </row>
     <row r="32" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
-      <c r="AI32" s="12"/>
-      <c r="AJ32" s="12"/>
-      <c r="AK32" s="12"/>
-      <c r="AL32" s="12"/>
-      <c r="AM32" s="12"/>
-      <c r="AN32" s="12"/>
-      <c r="AO32" s="12"/>
-      <c r="AP32" s="12"/>
-      <c r="AQ32" s="12"/>
-      <c r="AR32" s="12"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
-      <c r="AU32" s="12"/>
-      <c r="AV32" s="12"/>
-      <c r="AW32" s="12"/>
-      <c r="AX32" s="12"/>
-      <c r="AY32" s="12"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
     </row>
     <row r="33" spans="5:51" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
-      <c r="AU33" s="12"/>
-      <c r="AV33" s="12"/>
-      <c r="AW33" s="12"/>
-      <c r="AX33" s="12"/>
-      <c r="AY33" s="12"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
+      <c r="AY33" s="10"/>
     </row>
     <row r="34" spans="5:51" x14ac:dyDescent="0.2">
       <c r="H34" t="s">
         <v>118</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
-      <c r="AX34" s="12"/>
-      <c r="AY34" s="12"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
+      <c r="AY34" s="10"/>
     </row>
     <row r="35" spans="5:51" x14ac:dyDescent="0.2">
       <c r="H35" t="s">
         <v>120</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
-      <c r="AX35" s="12"/>
-      <c r="AY35" s="12"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
     </row>
     <row r="36" spans="5:51" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="12"/>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="12"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="12"/>
-      <c r="AN36" s="12"/>
-      <c r="AO36" s="12"/>
-      <c r="AP36" s="12"/>
-      <c r="AQ36" s="12"/>
-      <c r="AR36" s="12"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="12"/>
-      <c r="AX36" s="12"/>
-      <c r="AY36" s="12"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
+      <c r="AY36" s="10"/>
     </row>
     <row r="37" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="12"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="12"/>
-      <c r="AX37" s="12"/>
-      <c r="AY37" s="12"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="10"/>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
+      <c r="AY37" s="10"/>
     </row>
     <row r="39" spans="5:51" x14ac:dyDescent="0.2">
       <c r="E39" s="2" t="s">
@@ -6392,33 +6774,177 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
       <c r="H53" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E55" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D63" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E65" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:AD27"/>
+    <mergeCell ref="AE27:AY27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:AD28"/>
+    <mergeCell ref="AE28:AY28"/>
     <mergeCell ref="J31:Q31"/>
     <mergeCell ref="R31:AD31"/>
     <mergeCell ref="AE31:AY31"/>
@@ -6428,12 +6954,6 @@
     <mergeCell ref="J30:Q30"/>
     <mergeCell ref="R30:AD30"/>
     <mergeCell ref="AE30:AY30"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:AD27"/>
-    <mergeCell ref="AE27:AY27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:AD28"/>
-    <mergeCell ref="AE28:AY28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docker.xlsx
+++ b/Docker.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
   <si>
     <t>https://docs.docker.com/toolbox/toolbox_install_windows/</t>
   </si>
@@ -1213,6 +1213,229 @@
     </rPh>
     <rPh sb="40" eb="43">
       <t>ヨウチュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container停止</t>
+    <rPh sb="9" eb="11">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker stop &lt;container name | ID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一律停止</t>
+    <rPh sb="0" eb="2">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「-q (--quite)」option使用</t>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ex) docker ps -q -f ancestor=nginx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一律検索</t>
+    <rPh sb="0" eb="2">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt; nginxイメージを使用する全てのcontainerを検索する</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「$( )」を使用</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ex)  docker stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(docker ps -q -f ancestor=nginx)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt; nginxイメージを使用する全てのcontainerを停止する</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※停止中のcontainerの再起動</t>
+    <rPh sb="1" eb="3">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>docker start &lt;container name | ID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>停止中のcontainer検索</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「-a (--all)」を使用</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ex) docker ps -a -f ancestor=nginx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container image 削除</t>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ docker rm &lt;container name | ID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ docker rm $(docker ps -aq -f ancestor=ngix)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nginx imageを使用する全てのcontainerを削除する</t>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※docker rm -f $(docker ps -aq -f ancestor=ngix)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt; -f (--force) optionで実行中のcontainerも強制的に削除することが可能。（使用に要注意）</t>
+    <rPh sb="24" eb="26">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ヨウチュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>container 削除</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ docker rmi &lt;container image name&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※rmi : Remove image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ docker rmi $(docker ps -q nginx)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt; nginx イメージ一律削除</t>
+    <rPh sb="14" eb="16">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1386,10 +1609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6096,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AY90"/>
+  <dimension ref="D2:AY127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -6209,254 +6432,254 @@
       </c>
     </row>
     <row r="27" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12" t="s">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12" t="s">
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
-      <c r="AM27" s="12"/>
-      <c r="AN27" s="12"/>
-      <c r="AO27" s="12"/>
-      <c r="AP27" s="12"/>
-      <c r="AQ27" s="12"/>
-      <c r="AR27" s="12"/>
-      <c r="AS27" s="12"/>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="12"/>
-      <c r="AY27" s="12"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
     </row>
     <row r="28" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11" t="s">
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="11"/>
-      <c r="AO28" s="11"/>
-      <c r="AP28" s="11"/>
-      <c r="AQ28" s="11"/>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="11"/>
-      <c r="AT28" s="11"/>
-      <c r="AU28" s="11"/>
-      <c r="AV28" s="11"/>
-      <c r="AW28" s="11"/>
-      <c r="AX28" s="11"/>
-      <c r="AY28" s="11"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
     </row>
     <row r="29" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11" t="s">
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="11"/>
-      <c r="AO29" s="11"/>
-      <c r="AP29" s="11"/>
-      <c r="AQ29" s="11"/>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="11"/>
-      <c r="AT29" s="11"/>
-      <c r="AU29" s="11"/>
-      <c r="AV29" s="11"/>
-      <c r="AW29" s="11"/>
-      <c r="AX29" s="11"/>
-      <c r="AY29" s="11"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
     </row>
     <row r="30" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11" t="s">
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
-      <c r="AL30" s="11"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="11"/>
-      <c r="AO30" s="11"/>
-      <c r="AP30" s="11"/>
-      <c r="AQ30" s="11"/>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="11"/>
-      <c r="AT30" s="11"/>
-      <c r="AU30" s="11"/>
-      <c r="AV30" s="11"/>
-      <c r="AW30" s="11"/>
-      <c r="AX30" s="11"/>
-      <c r="AY30" s="11"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+      <c r="AX30" s="12"/>
+      <c r="AY30" s="12"/>
     </row>
     <row r="31" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11" t="s">
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
-      <c r="AL31" s="11"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="11"/>
-      <c r="AQ31" s="11"/>
-      <c r="AR31" s="11"/>
-      <c r="AS31" s="11"/>
-      <c r="AT31" s="11"/>
-      <c r="AU31" s="11"/>
-      <c r="AV31" s="11"/>
-      <c r="AW31" s="11"/>
-      <c r="AX31" s="11"/>
-      <c r="AY31" s="11"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
     </row>
     <row r="32" spans="5:51" x14ac:dyDescent="0.2">
       <c r="J32" s="10"/>
@@ -6774,177 +6997,315 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E55" s="2" t="s">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>160</v>
+      </c>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="8"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E65" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F56" t="s">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G57" t="s">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="8" t="s">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F60" t="s">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F61" t="s">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D63" s="7" t="s">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E73" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E85" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E93" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D100" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E65" s="2" t="s">
+    <row r="102" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E102" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F66" t="s">
+    <row r="103" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
+    <row r="104" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E69" s="2" t="s">
+    <row r="106" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E106" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F70" t="s">
+    <row r="107" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F71" t="s">
+    <row r="108" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
+    <row r="109" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="2" t="s">
+    <row r="111" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E111" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F75" t="s">
+    <row r="112" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F77" t="s">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="G78" t="s">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F80" t="s">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F83" t="s">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H89" t="s">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="H90" t="s">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:AD27"/>
-    <mergeCell ref="AE27:AY27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:AD28"/>
-    <mergeCell ref="AE28:AY28"/>
     <mergeCell ref="J31:Q31"/>
     <mergeCell ref="R31:AD31"/>
     <mergeCell ref="AE31:AY31"/>
@@ -6954,6 +7315,12 @@
     <mergeCell ref="J30:Q30"/>
     <mergeCell ref="R30:AD30"/>
     <mergeCell ref="AE30:AY30"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:AD27"/>
+    <mergeCell ref="AE27:AY27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:AD28"/>
+    <mergeCell ref="AE28:AY28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docker.xlsx
+++ b/Docker.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="install" sheetId="1" r:id="rId1"/>
     <sheet name="commands" sheetId="9" r:id="rId2"/>
     <sheet name="Docker-DeskTop" sheetId="6" r:id="rId3"/>
     <sheet name="host-only error" sheetId="2" r:id="rId4"/>
-    <sheet name="cgroup error" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="port forward" sheetId="4" r:id="rId7"/>
-    <sheet name="volume設定" sheetId="7" r:id="rId8"/>
-    <sheet name="payara-oracle連結" sheetId="8" r:id="rId9"/>
+    <sheet name="Waiting no response" sheetId="10" r:id="rId5"/>
+    <sheet name="cgroup error" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
+    <sheet name="port forward" sheetId="4" r:id="rId8"/>
+    <sheet name="volume設定" sheetId="7" r:id="rId9"/>
+    <sheet name="payara-oracle連結" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
   <si>
     <t>https://docs.docker.com/toolbox/toolbox_install_windows/</t>
   </si>
@@ -1432,12 +1434,12 @@
   <si>
     <t>-&gt; nginx イメージ一律削除</t>
     <rPh sb="14" eb="16">
-      <t>イチリツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+      <t>イチリツサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(default) Waiting for an IP...</t>
   </si>
 </sst>
 </file>
@@ -1609,10 +1611,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3208,6 +3210,49 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65219</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1005840"/>
+          <a:ext cx="11647619" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3283,7 +3328,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3326,7 +3371,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3795,7 +3840,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5730,7 +5775,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6317,11 +6362,184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S88"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W71" sqref="W71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S84" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AY127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
@@ -6432,254 +6650,254 @@
       </c>
     </row>
     <row r="27" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11" t="s">
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="11"/>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
     </row>
     <row r="28" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12" t="s">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12" t="s">
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
     </row>
     <row r="29" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12" t="s">
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
     </row>
     <row r="30" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12" t="s">
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
-      <c r="AK30" s="12"/>
-      <c r="AL30" s="12"/>
-      <c r="AM30" s="12"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="12"/>
-      <c r="AP30" s="12"/>
-      <c r="AQ30" s="12"/>
-      <c r="AR30" s="12"/>
-      <c r="AS30" s="12"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="12"/>
-      <c r="AW30" s="12"/>
-      <c r="AX30" s="12"/>
-      <c r="AY30" s="12"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
     </row>
     <row r="31" spans="5:51" x14ac:dyDescent="0.2">
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12" t="s">
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="12"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
-      <c r="AX31" s="12"/>
-      <c r="AY31" s="12"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
     </row>
     <row r="32" spans="5:51" x14ac:dyDescent="0.2">
       <c r="J32" s="10"/>
@@ -7306,6 +7524,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:AD27"/>
+    <mergeCell ref="AE27:AY27"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:AD28"/>
+    <mergeCell ref="AE28:AY28"/>
     <mergeCell ref="J31:Q31"/>
     <mergeCell ref="R31:AD31"/>
     <mergeCell ref="AE31:AY31"/>
@@ -7315,12 +7539,6 @@
     <mergeCell ref="J30:Q30"/>
     <mergeCell ref="R30:AD30"/>
     <mergeCell ref="AE30:AY30"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:AD27"/>
-    <mergeCell ref="AE27:AY27"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:AD28"/>
-    <mergeCell ref="AE28:AY28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7484,6 +7702,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7498,7 +7753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B33:B38"/>
   <sheetViews>
@@ -7545,7 +7800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7561,7 +7816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B125"/>
   <sheetViews>
@@ -7612,177 +7867,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S88"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W71" sqref="W71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S84" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S85" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>